--- a/src/assets/utenti_precaricati.xlsx
+++ b/src/assets/utenti_precaricati.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcalamita/angular-boilerplate/src/assets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F12A77-B52A-C946-B86E-1816E1B85D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentManualCount="8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="182">
   <si>
     <t>Cognome</t>
   </si>
@@ -37,74 +43,540 @@
     <t>Codice sicurezza</t>
   </si>
   <si>
-    <t>Rossi</t>
-  </si>
-  <si>
-    <t>Bianchi</t>
-  </si>
-  <si>
-    <t>Verdi</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Luca</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>1980-01-15</t>
-  </si>
-  <si>
-    <t>1992-05-30</t>
-  </si>
-  <si>
-    <t>1985-07-10</t>
-  </si>
-  <si>
-    <t>Milano</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>RSSMRA80A15F205X</t>
-  </si>
-  <si>
-    <t>BNCLCU92E30H501Z</t>
-  </si>
-  <si>
-    <t>VRDNNA85L50L219J</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>654321</t>
-  </si>
-  <si>
-    <t>789012</t>
-  </si>
-  <si>
     <t>ABC123</t>
   </si>
   <si>
-    <t>DEF456</t>
-  </si>
-  <si>
-    <t>GHI789</t>
+    <t>AMORUSO</t>
+  </si>
+  <si>
+    <t>BARI</t>
+  </si>
+  <si>
+    <t>BATTAGLIA</t>
+  </si>
+  <si>
+    <t>BITETTI</t>
+  </si>
+  <si>
+    <t>CALAMITA</t>
+  </si>
+  <si>
+    <t>CARRASSI</t>
+  </si>
+  <si>
+    <t>CATACCHIO</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>CHIARAPPA</t>
+  </si>
+  <si>
+    <t>DE GIROLAMO</t>
+  </si>
+  <si>
+    <t>DELLE FOGLIE</t>
+  </si>
+  <si>
+    <t>DIGIROLAMO</t>
+  </si>
+  <si>
+    <t>DIMAURO</t>
+  </si>
+  <si>
+    <t>FAVIA</t>
+  </si>
+  <si>
+    <t>FRASCATI</t>
+  </si>
+  <si>
+    <t>FILOGRANO</t>
+  </si>
+  <si>
+    <t>GIORDANO</t>
+  </si>
+  <si>
+    <t>GLORIOSO</t>
+  </si>
+  <si>
+    <t>LIPPOLIS</t>
+  </si>
+  <si>
+    <t>LOPRIENO</t>
+  </si>
+  <si>
+    <t>MAZZONE</t>
+  </si>
+  <si>
+    <t>MIDIO</t>
+  </si>
+  <si>
+    <t>MIRIZZI</t>
+  </si>
+  <si>
+    <t>MISINO</t>
+  </si>
+  <si>
+    <t>NAPOLETANO</t>
+  </si>
+  <si>
+    <t>NATUZZI</t>
+  </si>
+  <si>
+    <t>NENNA</t>
+  </si>
+  <si>
+    <t>NITTI</t>
+  </si>
+  <si>
+    <t>NUZZI</t>
+  </si>
+  <si>
+    <t>PAGANO</t>
+  </si>
+  <si>
+    <t>PALMIERI</t>
+  </si>
+  <si>
+    <t>PANGELLIERI</t>
+  </si>
+  <si>
+    <t>PANTALEO</t>
+  </si>
+  <si>
+    <t>PANUNZIO</t>
+  </si>
+  <si>
+    <t>PETRELLI</t>
+  </si>
+  <si>
+    <t>PICCI</t>
+  </si>
+  <si>
+    <t>PILOLLA</t>
+  </si>
+  <si>
+    <t>PONTRANDOLFO</t>
+  </si>
+  <si>
+    <t>ROMANO</t>
+  </si>
+  <si>
+    <t>SANZONE</t>
+  </si>
+  <si>
+    <t>SAVOIARDO</t>
+  </si>
+  <si>
+    <t>SBLENDORIO</t>
+  </si>
+  <si>
+    <t>SCANNICCHIO</t>
+  </si>
+  <si>
+    <t>SCORCIA</t>
+  </si>
+  <si>
+    <t>SPALIERNO</t>
+  </si>
+  <si>
+    <t>TINELLI</t>
+  </si>
+  <si>
+    <t>TOMASICCHIO</t>
+  </si>
+  <si>
+    <t>VERDE</t>
+  </si>
+  <si>
+    <t>VILELLA</t>
+  </si>
+  <si>
+    <t>VITUCCI</t>
+  </si>
+  <si>
+    <t>ZANIERATO</t>
+  </si>
+  <si>
+    <t>ARMANDO</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>MIRO FRANCESCO</t>
+  </si>
+  <si>
+    <t>GIUSEPPE</t>
+  </si>
+  <si>
+    <t>NUNZIO</t>
+  </si>
+  <si>
+    <t>MICHELE</t>
+  </si>
+  <si>
+    <t>PASQUALE</t>
+  </si>
+  <si>
+    <t>NICOLA</t>
+  </si>
+  <si>
+    <t>SABINO</t>
+  </si>
+  <si>
+    <t>GIANLUCA</t>
+  </si>
+  <si>
+    <t>VITANTONIO</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>ERASMO</t>
+  </si>
+  <si>
+    <t>FABIO</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>TERESA</t>
+  </si>
+  <si>
+    <t>ELEONORA</t>
+  </si>
+  <si>
+    <t>ROCCO</t>
+  </si>
+  <si>
+    <t>SANTO</t>
+  </si>
+  <si>
+    <t>FLAVIO</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>GIOVANNI</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>VITO</t>
+  </si>
+  <si>
+    <t>CLAUDIO</t>
+  </si>
+  <si>
+    <t>FRANCESCO</t>
+  </si>
+  <si>
+    <t>PIETRO</t>
+  </si>
+  <si>
+    <t>ANDREA TOMMASO</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>NICOLA EMILIO</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>SAMUELE</t>
+  </si>
+  <si>
+    <t>ENZO</t>
+  </si>
+  <si>
+    <t>LUIGI</t>
+  </si>
+  <si>
+    <t>DOMENICO</t>
+  </si>
+  <si>
+    <t>ANDREA GIUSEPPE</t>
+  </si>
+  <si>
+    <t>ANGELO</t>
+  </si>
+  <si>
+    <t>CATERINA ROBERTA</t>
+  </si>
+  <si>
+    <t>VINCENZO</t>
+  </si>
+  <si>
+    <t>ACHILLE</t>
+  </si>
+  <si>
+    <t>BARTOLOMEO</t>
+  </si>
+  <si>
+    <t>GIACOMO</t>
+  </si>
+  <si>
+    <t>STEFANO</t>
+  </si>
+  <si>
+    <t>GIOIA DEL COLLE</t>
+  </si>
+  <si>
+    <t>SANTERAMO IN COLLE</t>
+  </si>
+  <si>
+    <t>BITONTO</t>
+  </si>
+  <si>
+    <t>ACQUAVIVA DELLE FONTI</t>
+  </si>
+  <si>
+    <t>MODUGNO</t>
+  </si>
+  <si>
+    <t>PUTIGNANO</t>
+  </si>
+  <si>
+    <t>TORONTO (CANADA)</t>
+  </si>
+  <si>
+    <t>BISCEGLIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACQUAVIVA DELLE FONTI </t>
+  </si>
+  <si>
+    <t>SAN GIOVANNI ROTONDO</t>
+  </si>
+  <si>
+    <t>BARLETTA</t>
+  </si>
+  <si>
+    <t>MOLA DI BARI</t>
+  </si>
+  <si>
+    <t>PALERMO</t>
+  </si>
+  <si>
+    <t>TRANI</t>
+  </si>
+  <si>
+    <t>VALENZANO</t>
+  </si>
+  <si>
+    <t>N.A.</t>
+  </si>
+  <si>
+    <t>PROVA</t>
+  </si>
+  <si>
+    <t>ABC124</t>
+  </si>
+  <si>
+    <t>ABC125</t>
+  </si>
+  <si>
+    <t>ABC126</t>
+  </si>
+  <si>
+    <t>ABC127</t>
+  </si>
+  <si>
+    <t>ABC128</t>
+  </si>
+  <si>
+    <t>ABC129</t>
+  </si>
+  <si>
+    <t>ABC130</t>
+  </si>
+  <si>
+    <t>ABC131</t>
+  </si>
+  <si>
+    <t>ABC132</t>
+  </si>
+  <si>
+    <t>ABC133</t>
+  </si>
+  <si>
+    <t>ABC134</t>
+  </si>
+  <si>
+    <t>ABC135</t>
+  </si>
+  <si>
+    <t>ABC136</t>
+  </si>
+  <si>
+    <t>ABC137</t>
+  </si>
+  <si>
+    <t>ABC138</t>
+  </si>
+  <si>
+    <t>ABC139</t>
+  </si>
+  <si>
+    <t>ABC140</t>
+  </si>
+  <si>
+    <t>ABC141</t>
+  </si>
+  <si>
+    <t>ABC142</t>
+  </si>
+  <si>
+    <t>ABC143</t>
+  </si>
+  <si>
+    <t>ABC144</t>
+  </si>
+  <si>
+    <t>ABC145</t>
+  </si>
+  <si>
+    <t>ABC146</t>
+  </si>
+  <si>
+    <t>ABC147</t>
+  </si>
+  <si>
+    <t>ABC148</t>
+  </si>
+  <si>
+    <t>ABC149</t>
+  </si>
+  <si>
+    <t>ABC150</t>
+  </si>
+  <si>
+    <t>ABC151</t>
+  </si>
+  <si>
+    <t>ABC152</t>
+  </si>
+  <si>
+    <t>ABC153</t>
+  </si>
+  <si>
+    <t>ABC154</t>
+  </si>
+  <si>
+    <t>ABC155</t>
+  </si>
+  <si>
+    <t>ABC156</t>
+  </si>
+  <si>
+    <t>ABC157</t>
+  </si>
+  <si>
+    <t>ABC158</t>
+  </si>
+  <si>
+    <t>ABC159</t>
+  </si>
+  <si>
+    <t>ABC160</t>
+  </si>
+  <si>
+    <t>ABC161</t>
+  </si>
+  <si>
+    <t>ABC162</t>
+  </si>
+  <si>
+    <t>ABC163</t>
+  </si>
+  <si>
+    <t>ABC164</t>
+  </si>
+  <si>
+    <t>ABC165</t>
+  </si>
+  <si>
+    <t>ABC166</t>
+  </si>
+  <si>
+    <t>ABC167</t>
+  </si>
+  <si>
+    <t>ABC168</t>
+  </si>
+  <si>
+    <t>ABC169</t>
+  </si>
+  <si>
+    <t>ABC170</t>
+  </si>
+  <si>
+    <t>ABC171</t>
+  </si>
+  <si>
+    <t>ABC172</t>
+  </si>
+  <si>
+    <t>ABC173</t>
+  </si>
+  <si>
+    <t>ABC174</t>
+  </si>
+  <si>
+    <t>ABC175</t>
+  </si>
+  <si>
+    <t>ABC176</t>
+  </si>
+  <si>
+    <t>ABC177</t>
+  </si>
+  <si>
+    <t>ABC178</t>
+  </si>
+  <si>
+    <t>ABC179</t>
+  </si>
+  <si>
+    <t>ABC180</t>
+  </si>
+  <si>
+    <t>ABC181</t>
+  </si>
+  <si>
+    <t>ABC182</t>
+  </si>
+  <si>
+    <t>ABC183</t>
+  </si>
+  <si>
+    <t>ABC184</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +588,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,10 +641,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -167,13 +661,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +713,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -245,6 +747,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,9 +782,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,14 +958,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="7" width="23.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,76 +994,1440 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3">
+        <v>27196</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3">
+        <v>27600</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="3">
+        <v>27038</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="3">
+        <v>24101</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="3">
+        <v>33236</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="3">
+        <v>35196</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3">
+        <v>36426</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3">
+        <v>23593</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3">
+        <v>36235</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3">
+        <v>33805</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3">
+        <v>29472</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="3">
+        <v>32936</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3">
+        <v>35199</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3">
+        <v>36762</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="3">
+        <v>35211</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3">
+        <v>32378</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3">
+        <v>24460</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="3">
+        <v>26320</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3">
+        <v>35159</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20949</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="3">
+        <v>28915</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="3">
+        <v>29132</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="3">
+        <v>36341</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="3">
+        <v>29346</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="3">
+        <v>31593</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="3">
+        <v>29105</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="3">
+        <v>37867</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="3">
+        <v>25724</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="3">
+        <v>34366</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="3">
+        <v>36759</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="3">
+        <v>32157</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="3">
+        <v>34653</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="3">
+        <v>34761</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="4">
+        <v>34479</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="3">
+        <v>27941</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="3">
+        <v>40605</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="3">
+        <v>30521</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="4">
+        <v>35605</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="3">
+        <v>36811</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="3">
+        <v>20884</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="3">
+        <v>33018</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="3">
+        <v>33498</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="3">
+        <v>36246</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="3">
+        <v>22893</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="3">
+        <v>36007</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="3">
+        <v>32292</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="3">
+        <v>25714</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="3">
+        <v>28852</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="3">
+        <v>26278</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" t="s">
+        <v>120</v>
+      </c>
+      <c r="G50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="3">
+        <v>34310</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="3">
+        <v>27627</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="3">
+        <v>34495</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="3">
+        <v>24303</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="3">
+        <v>25364</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="3">
+        <v>35299</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="3">
+        <v>34072</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" t="s">
+        <v>120</v>
+      </c>
+      <c r="G57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="3">
+        <v>32253</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" t="s">
+        <v>120</v>
+      </c>
+      <c r="G58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="3">
+        <v>33598</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="3">
+        <v>28417</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" t="s">
+        <v>120</v>
+      </c>
+      <c r="G60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="3">
+        <v>26035</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="3">
+        <v>40037</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" t="s">
+        <v>120</v>
+      </c>
+      <c r="G62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="3">
+        <v>27058</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" t="s">
+        <v>119</v>
+      </c>
+      <c r="F63" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/src/assets/utenti_precaricati.xlsx
+++ b/src/assets/utenti_precaricati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcalamita/angular-boilerplate/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F12A77-B52A-C946-B86E-1816E1B85D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FCCB46-3C7B-9641-AA0B-A4EEEA4390A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="218">
   <si>
     <t>Cognome</t>
   </si>
@@ -379,9 +379,6 @@
     <t>VALENZANO</t>
   </si>
   <si>
-    <t>N.A.</t>
-  </si>
-  <si>
     <t>PROVA</t>
   </si>
   <si>
@@ -566,6 +563,117 @@
   </si>
   <si>
     <t>ABC184</t>
+  </si>
+  <si>
+    <t>16-6-1974</t>
+  </si>
+  <si>
+    <t>25-7-1975</t>
+  </si>
+  <si>
+    <t>25-12-1965</t>
+  </si>
+  <si>
+    <t>29-12-1990</t>
+  </si>
+  <si>
+    <t>23-9-1999</t>
+  </si>
+  <si>
+    <t>16-3-1999</t>
+  </si>
+  <si>
+    <t>20-7-1992</t>
+  </si>
+  <si>
+    <t>14-5-1996</t>
+  </si>
+  <si>
+    <t>24-8-2000</t>
+  </si>
+  <si>
+    <t>26-5-1996</t>
+  </si>
+  <si>
+    <t>23-8-1988</t>
+  </si>
+  <si>
+    <t>19-12-1966</t>
+  </si>
+  <si>
+    <t>22-1-1972</t>
+  </si>
+  <si>
+    <t>30-6-1999</t>
+  </si>
+  <si>
+    <t>30-6-1986</t>
+  </si>
+  <si>
+    <t>21-8-2000</t>
+  </si>
+  <si>
+    <t>15-1-1988</t>
+  </si>
+  <si>
+    <t>15-11-1994</t>
+  </si>
+  <si>
+    <t>25-05-1994</t>
+  </si>
+  <si>
+    <t>30-6-1976</t>
+  </si>
+  <si>
+    <t>24-7-1983</t>
+  </si>
+  <si>
+    <t>24-06-1997</t>
+  </si>
+  <si>
+    <t>25-5-1990</t>
+  </si>
+  <si>
+    <t>17-9-1991</t>
+  </si>
+  <si>
+    <t>27-3-1999</t>
+  </si>
+  <si>
+    <t>31-7-1998</t>
+  </si>
+  <si>
+    <t>29-5-1988</t>
+  </si>
+  <si>
+    <t>26-5-1970</t>
+  </si>
+  <si>
+    <t>28-12-1978</t>
+  </si>
+  <si>
+    <t>21-8-1975</t>
+  </si>
+  <si>
+    <t>15-7-1966</t>
+  </si>
+  <si>
+    <t>22-8-1996</t>
+  </si>
+  <si>
+    <t>13-4-1993</t>
+  </si>
+  <si>
+    <t>20-4-1988</t>
+  </si>
+  <si>
+    <t>26-12-1991</t>
+  </si>
+  <si>
+    <t>19-10-1977</t>
+  </si>
+  <si>
+    <t>29-1-1974</t>
   </si>
 </sst>
 </file>
@@ -961,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1001,17 +1109,17 @@
       <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="3">
-        <v>27196</v>
+      <c r="C2" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" t="s">
-        <v>119</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -1024,20 +1132,20 @@
       <c r="B3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="3">
-        <v>27600</v>
+      <c r="C3" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>119</v>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" t="s">
         <v>120</v>
-      </c>
-      <c r="G3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1048,19 +1156,19 @@
         <v>61</v>
       </c>
       <c r="C4" s="3">
-        <v>27038</v>
+        <v>27273</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>119</v>
+      <c r="E4">
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1070,20 +1178,20 @@
       <c r="B5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="3">
-        <v>24101</v>
+      <c r="C5" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
-        <v>119</v>
+      <c r="E5">
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1093,20 +1201,20 @@
       <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="3">
-        <v>33236</v>
+      <c r="C6" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E6" t="s">
-        <v>119</v>
+      <c r="E6">
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1117,19 +1225,19 @@
         <v>62</v>
       </c>
       <c r="C7" s="3">
-        <v>35196</v>
+        <v>35374</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>119</v>
+      <c r="E7">
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1139,20 +1247,20 @@
       <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="3">
-        <v>36426</v>
+      <c r="C8" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>119</v>
+      <c r="E8">
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1163,19 +1271,19 @@
         <v>65</v>
       </c>
       <c r="C9" s="3">
-        <v>23593</v>
+        <v>23475</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E9" t="s">
-        <v>119</v>
+      <c r="E9">
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1185,20 +1293,20 @@
       <c r="B10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="3">
-        <v>36235</v>
+      <c r="C10" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
-        <v>119</v>
+      <c r="E10">
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1208,20 +1316,20 @@
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="3">
-        <v>33805</v>
+      <c r="C11" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
-        <v>119</v>
+      <c r="E11">
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1232,19 +1340,19 @@
         <v>66</v>
       </c>
       <c r="C12" s="3">
-        <v>29472</v>
+        <v>29442</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E12" t="s">
-        <v>119</v>
+      <c r="E12">
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1255,19 +1363,19 @@
         <v>68</v>
       </c>
       <c r="C13" s="3">
-        <v>32936</v>
+        <v>32966</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
-        <v>119</v>
+      <c r="E13">
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1277,20 +1385,20 @@
       <c r="B14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="3">
-        <v>35199</v>
+      <c r="C14" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
-        <v>119</v>
+      <c r="E14">
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1300,20 +1408,20 @@
       <c r="B15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="3">
-        <v>36762</v>
+      <c r="C15" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
-        <v>119</v>
+      <c r="E15">
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1323,20 +1431,20 @@
       <c r="B16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="3">
-        <v>35211</v>
+      <c r="C16" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E16" t="s">
-        <v>119</v>
+      <c r="E16">
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1346,20 +1454,20 @@
       <c r="B17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="3">
-        <v>32378</v>
+      <c r="C17" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E17" t="s">
-        <v>119</v>
+      <c r="E17">
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1369,20 +1477,20 @@
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="3">
-        <v>24460</v>
+      <c r="C18" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
-        <v>119</v>
+      <c r="E18">
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1392,20 +1500,20 @@
       <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="3">
-        <v>26320</v>
+      <c r="C19" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E19" t="s">
-        <v>119</v>
+      <c r="E19">
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1421,14 +1529,14 @@
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
-        <v>119</v>
+      <c r="E20">
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1439,19 +1547,19 @@
         <v>73</v>
       </c>
       <c r="C21" s="3">
-        <v>20949</v>
+        <v>21068</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
-        <v>119</v>
+      <c r="E21">
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1462,19 +1570,19 @@
         <v>74</v>
       </c>
       <c r="C22" s="3">
-        <v>28915</v>
+        <v>28858</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
-        <v>119</v>
+      <c r="E22">
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1485,19 +1593,19 @@
         <v>75</v>
       </c>
       <c r="C23" s="3">
-        <v>29132</v>
+        <v>28955</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s">
-        <v>119</v>
+      <c r="E23">
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1507,20 +1615,20 @@
       <c r="B24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="3">
-        <v>36341</v>
+      <c r="C24" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E24" t="s">
-        <v>119</v>
+      <c r="E24">
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1536,14 +1644,14 @@
       <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E25" t="s">
-        <v>119</v>
+      <c r="E25">
+        <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1553,20 +1661,20 @@
       <c r="B26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="3">
-        <v>31593</v>
+      <c r="C26" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E26" t="s">
-        <v>119</v>
+      <c r="E26">
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1577,19 +1685,19 @@
         <v>78</v>
       </c>
       <c r="C27" s="3">
-        <v>29105</v>
+        <v>29045</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E27" t="s">
-        <v>119</v>
+      <c r="E27">
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1600,19 +1708,19 @@
         <v>79</v>
       </c>
       <c r="C28" s="3">
-        <v>37867</v>
+        <v>37689</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E28" t="s">
-        <v>119</v>
+      <c r="E28">
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1623,19 +1731,19 @@
         <v>80</v>
       </c>
       <c r="C29" s="3">
-        <v>25724</v>
+        <v>25694</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E29" t="s">
-        <v>119</v>
+      <c r="E29">
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1646,19 +1754,19 @@
         <v>81</v>
       </c>
       <c r="C30" s="3">
-        <v>34366</v>
+        <v>34336</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E30" t="s">
-        <v>119</v>
+      <c r="E30">
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1668,20 +1776,20 @@
       <c r="B31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="3">
-        <v>36759</v>
+      <c r="C31" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E31" t="s">
-        <v>119</v>
+      <c r="E31">
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1691,20 +1799,20 @@
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="3">
-        <v>32157</v>
+      <c r="C32" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E32" t="s">
-        <v>119</v>
+      <c r="E32">
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1714,20 +1822,20 @@
       <c r="B33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="3">
-        <v>34653</v>
+      <c r="C33" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E33" t="s">
-        <v>119</v>
+      <c r="E33">
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1743,14 +1851,14 @@
       <c r="D34" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E34" t="s">
-        <v>119</v>
+      <c r="E34">
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1760,20 +1868,20 @@
       <c r="B35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="4">
-        <v>34479</v>
+      <c r="C35" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E35" t="s">
-        <v>119</v>
+      <c r="E35">
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1783,20 +1891,20 @@
       <c r="B36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="3">
-        <v>27941</v>
+      <c r="C36" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E36" t="s">
-        <v>119</v>
+      <c r="E36">
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1812,14 +1920,14 @@
       <c r="D37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E37" t="s">
-        <v>119</v>
+      <c r="E37">
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1829,20 +1937,20 @@
       <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="3">
-        <v>30521</v>
+      <c r="C38" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E38" t="s">
-        <v>119</v>
+      <c r="E38">
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1852,20 +1960,20 @@
       <c r="B39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="4">
-        <v>35605</v>
+      <c r="C39" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E39" t="s">
-        <v>119</v>
+      <c r="E39">
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1876,19 +1984,19 @@
         <v>83</v>
       </c>
       <c r="C40" s="3">
-        <v>36811</v>
+        <v>36870</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E40" t="s">
-        <v>119</v>
+      <c r="E40">
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1899,19 +2007,19 @@
         <v>89</v>
       </c>
       <c r="C41" s="3">
-        <v>20884</v>
+        <v>20943</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E41" t="s">
-        <v>119</v>
+      <c r="E41">
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1921,20 +2029,20 @@
       <c r="B42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="3">
-        <v>33018</v>
+      <c r="C42" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E42" t="s">
-        <v>119</v>
+      <c r="E42">
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1944,20 +2052,20 @@
       <c r="B43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="3">
-        <v>33498</v>
+      <c r="C43" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E43" t="s">
-        <v>119</v>
+      <c r="E43">
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1967,20 +2075,20 @@
       <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="3">
-        <v>36246</v>
+      <c r="C44" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E44" t="s">
-        <v>119</v>
+      <c r="E44">
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1991,19 +2099,19 @@
         <v>83</v>
       </c>
       <c r="C45" s="3">
-        <v>22893</v>
+        <v>22745</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E45" t="s">
-        <v>119</v>
+      <c r="E45">
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2013,20 +2121,20 @@
       <c r="B46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="3">
-        <v>36007</v>
+      <c r="C46" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E46" t="s">
-        <v>119</v>
+      <c r="E46">
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2036,20 +2144,20 @@
       <c r="B47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="3">
-        <v>32292</v>
+      <c r="C47" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E47" t="s">
-        <v>119</v>
+      <c r="E47">
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2059,20 +2167,20 @@
       <c r="B48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="3">
-        <v>25714</v>
+      <c r="C48" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E48" t="s">
-        <v>119</v>
+      <c r="E48">
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2082,20 +2190,20 @@
       <c r="B49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="3">
-        <v>28852</v>
+      <c r="C49" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E49" t="s">
-        <v>119</v>
+      <c r="E49">
+        <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2106,19 +2214,19 @@
         <v>95</v>
       </c>
       <c r="C50" s="3">
-        <v>26278</v>
+        <v>26249</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E50" t="s">
-        <v>119</v>
+      <c r="E50">
+        <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2129,19 +2237,19 @@
         <v>96</v>
       </c>
       <c r="C51" s="3">
-        <v>34310</v>
+        <v>34162</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E51" t="s">
-        <v>119</v>
+      <c r="E51">
+        <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2151,20 +2259,20 @@
       <c r="B52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="3">
-        <v>27627</v>
+      <c r="C52" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E52" t="s">
-        <v>119</v>
+      <c r="E52">
+        <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2175,19 +2283,19 @@
         <v>98</v>
       </c>
       <c r="C53" s="3">
-        <v>34495</v>
+        <v>34613</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E53" t="s">
-        <v>119</v>
+      <c r="E53">
+        <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2197,20 +2305,20 @@
       <c r="B54" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="3">
-        <v>24303</v>
+      <c r="C54" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E54" t="s">
-        <v>119</v>
+      <c r="E54">
+        <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2221,19 +2329,19 @@
         <v>62</v>
       </c>
       <c r="C55" s="3">
-        <v>25364</v>
+        <v>25482</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E55" t="s">
-        <v>119</v>
+      <c r="E55">
+        <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2243,20 +2351,20 @@
       <c r="B56" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="3">
-        <v>35299</v>
+      <c r="C56" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E56" t="s">
-        <v>119</v>
+      <c r="E56">
+        <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2266,20 +2374,20 @@
       <c r="B57" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="3">
-        <v>34072</v>
+      <c r="C57" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E57" t="s">
-        <v>119</v>
+      <c r="E57">
+        <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2289,20 +2397,20 @@
       <c r="B58" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="3">
-        <v>32253</v>
+      <c r="C58" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E58" t="s">
-        <v>119</v>
+      <c r="E58">
+        <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2312,20 +2420,20 @@
       <c r="B59" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="3">
-        <v>33598</v>
+      <c r="C59" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E59" t="s">
-        <v>119</v>
+      <c r="E59">
+        <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2335,20 +2443,20 @@
       <c r="B60" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="3">
-        <v>28417</v>
+      <c r="C60" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E60" t="s">
-        <v>119</v>
+      <c r="E60">
+        <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2359,19 +2467,19 @@
         <v>101</v>
       </c>
       <c r="C61" s="3">
-        <v>26035</v>
+        <v>26271</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E61" t="s">
-        <v>119</v>
+      <c r="E61">
+        <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2382,19 +2490,19 @@
         <v>102</v>
       </c>
       <c r="C62" s="3">
-        <v>40037</v>
+        <v>40155</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E62" t="s">
-        <v>119</v>
+      <c r="E62">
+        <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2404,25 +2512,26 @@
       <c r="B63" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="3">
-        <v>27058</v>
+      <c r="C63" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E63" t="s">
-        <v>119</v>
+      <c r="E63">
+        <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
